--- a/1.xlsx
+++ b/1.xlsx
@@ -4,34 +4,39 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Графическое решение" sheetId="1" r:id="rId1"/>
     <sheet name="Симплекс-метод" sheetId="2" r:id="rId2"/>
     <sheet name="Двойственная задача" sheetId="3" r:id="rId3"/>
+    <sheet name="Решение через поиск решения" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Графическое решение'!$X$8:$X$9</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Решение через поиск решения'!$F$2:$F$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Графическое решение'!$T$14:$V$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Решение через поиск решения'!$B$8:$D$8</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Графическое решение'!$X$14</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Решение через поиск решения'!$F$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Решение через поиск решения'!$Y$18</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Графическое решение'!$T$10:$V$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Решение через поиск решения'!$B$4:$D$4</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -40,15 +45,18 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
   <si>
     <t>Виды сырья</t>
   </si>
@@ -89,9 +97,6 @@
     <t>Запасы bi</t>
   </si>
   <si>
-    <t>F(X) =</t>
-  </si>
-  <si>
     <t>x1</t>
   </si>
   <si>
@@ -120,13 +125,58 @@
   </si>
   <si>
     <t>F(X)=</t>
+  </si>
+  <si>
+    <t>Переводим в каноническую форму:</t>
+  </si>
+  <si>
+    <t>Симплекс-таблица</t>
+  </si>
+  <si>
+    <t>Базис</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>F(x0)</t>
+  </si>
+  <si>
+    <t>Неоптимальный</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Минимальный: 4.25</t>
+  </si>
+  <si>
+    <t>Новая симплекс таблица</t>
+  </si>
+  <si>
+    <t>Первая итерация:</t>
+  </si>
+  <si>
+    <t>Итерация №2</t>
+  </si>
+  <si>
+    <t>Новая симплекс-таблица</t>
+  </si>
+  <si>
+    <t>Оптимально</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +220,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +251,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -425,7 +519,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,6 +555,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -485,16 +586,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -692,7 +807,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>204595</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>44452</xdr:rowOff>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,7 +883,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>166861</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>48728</xdr:rowOff>
+      <xdr:rowOff>48727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,6 +947,176 @@
         <a:xfrm>
           <a:off x="11711940" y="8221980"/>
           <a:ext cx="1851660" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125916</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>115539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="https://latex.codecogs.com/png.latex?%5Cdpi%7B100%7D%20%5Clarge%20F%28x%29%20%3D%2020x_1%20&amp;plus;%2015x_2%20%5Crightarrow%20%5Cmax"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="311150" y="1912620"/>
+          <a:ext cx="2253166" cy="191739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>124398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>566544</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="https://latex.codecogs.com/png.image?\dpi%7b110%7d\left\%7b\begin%7bmatrix%7d3x_1%20+%205x_2%20\leq%2026%20\\2x_1%20+%204x_2%20\leq%2016\\4x_1%20+%202x_2%20\leq%2017\end%7bmatrix%7d\right.\\%20\\x_1%20\geq%200%20;%20x_2%20\geq%200"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="2296098"/>
+          <a:ext cx="1519044" cy="907276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="https://latex.codecogs.com/png.latex?%5Cdpi%7B100%7D%20%5CLARGE%20%5Cleft%5C%7B%5Cbegin%7Bmatrix%7D%203x_1%20&amp;plus;%205x_2%20&amp;plus;%20x_3%20%3D%2026%5C%5C%202x_1%20&amp;plus;%204x_2%20&amp;plus;%20x_4%20%3D%2016%5C%5C%204x_1%20&amp;plus;%202x_2%20&amp;plus;%20x_5%20%3D%2017%20%5Cend%7Bmatrix%7D%5Cright."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5303520" y="2186940"/>
+          <a:ext cx="2446020" cy="982980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:X12"/>
+    <sheetView zoomScale="123" workbookViewId="0">
+      <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,20 +1438,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1248,10 +1533,10 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1281,14 +1566,14 @@
       </c>
       <c r="J5" s="10"/>
       <c r="AD5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1297,137 +1582,45 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="3">
         <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="S8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="13">
-        <v>3</v>
-      </c>
-      <c r="U8" s="13">
-        <v>2</v>
-      </c>
-      <c r="V8" s="13">
-        <v>4</v>
-      </c>
-      <c r="W8" s="9">
-        <v>20</v>
-      </c>
-      <c r="X8" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="S9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="8">
-        <v>5</v>
-      </c>
-      <c r="U9" s="8">
-        <v>4</v>
-      </c>
-      <c r="V9" s="8">
-        <v>2</v>
-      </c>
-      <c r="W9" s="9">
-        <v>15</v>
-      </c>
-      <c r="X9" s="26">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="S10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="8">
-        <v>26</v>
-      </c>
-      <c r="U10" s="8">
-        <v>16</v>
-      </c>
-      <c r="V10" s="8">
-        <v>17</v>
-      </c>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="T14">
-        <f xml:space="preserve"> SUMPRODUCT(T8:T9,$X$8:$X$9)</f>
-        <v>21.5</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ref="U14:V14" si="0" xml:space="preserve"> SUMPRODUCT(U8:U9,$X$8:$X$9)</f>
-        <v>16</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="W14" t="s">
-        <v>23</v>
-      </c>
-      <c r="X14">
-        <f xml:space="preserve"> SUMPRODUCT(W8:W9,X8:X9)</f>
-        <v>97.5</v>
-      </c>
     </row>
     <row r="32" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.3">
       <c r="P44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="4:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="T46" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="4:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="T46" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="U46" s="25">
+      <c r="U46" s="17">
         <f>20 * 3 + 15 * 2.5</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="T47" s="23"/>
+      <c r="T47" s="15"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1449,13 +1642,1080 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>17</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="34">
+        <v>-20</v>
+      </c>
+      <c r="C26" s="34">
+        <v>-15</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="37">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="37">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="37">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="37">
+        <v>-20</v>
+      </c>
+      <c r="C34" s="36">
+        <v>-15</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="37">
+        <f>G38 /B31</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C38" s="10">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="37">
+        <f t="shared" ref="B39:B40" si="0">G39 /B32</f>
+        <v>8</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="41">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="C40" s="40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="37">
+        <v>-20</v>
+      </c>
+      <c r="C41" s="36">
+        <v>-15</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="10">
+        <f>B31-(B$33 * $B31) / $B$33</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" ref="C49:G49" si="1">C31-(C$33 * $B31) / $B$33</f>
+        <v>3.5</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.75</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" si="1"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="10">
+        <f>B32-(B$33 * $B32) / $B$33</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" ref="C50:G50" si="2">C32-(C$33 * $B32) / $B$33</f>
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="10">
+        <f>B33 / $B$33</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="10">
+        <f t="shared" ref="C51:G51" si="3">C33 / $B$33</f>
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="10">
+        <f>B34-(B$33 * $B34) / $B$33</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="38">
+        <f t="shared" ref="C52:G52" si="4">C34-(C$33 * $B34) / $B$33</f>
+        <v>-5</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="10">
+        <v>0</v>
+      </c>
+      <c r="C59" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <v>-0.75</v>
+      </c>
+      <c r="G59" s="10">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0</v>
+      </c>
+      <c r="C60" s="37">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="G60" s="10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+      <c r="C61" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G61" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="10">
+        <v>0</v>
+      </c>
+      <c r="C62" s="37">
+        <v>-5</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10">
+        <v>5</v>
+      </c>
+      <c r="G62" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="10">
+        <v>0</v>
+      </c>
+      <c r="C66" s="37">
+        <f>G31/C59</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10">
+        <v>-0.75</v>
+      </c>
+      <c r="G66" s="10">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="38">
+        <v>0</v>
+      </c>
+      <c r="C67" s="35">
+        <f t="shared" ref="C67:C68" si="5">G32/C60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="D67" s="38">
+        <v>0</v>
+      </c>
+      <c r="E67" s="38">
+        <v>1</v>
+      </c>
+      <c r="F67" s="38">
+        <v>-0.5</v>
+      </c>
+      <c r="G67" s="38">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+      <c r="C68" s="37">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G68" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0</v>
+      </c>
+      <c r="C69" s="37">
+        <v>-5</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10">
+        <v>5</v>
+      </c>
+      <c r="G69" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="10">
+        <f>B59-(B$60 * $C59) / $C$60</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="10">
+        <f t="shared" ref="C74:F74" si="6">C59-(C$60 * $C59) / $C$60</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.1666666666666667</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="G74" s="10">
+        <f>G59-(G$60 * $C59) / $C$60</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="10">
+        <f>B60/$C$60</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" ref="C75:G75" si="7">C60/$C$60</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="10">
+        <f>B61-(B$60 * $C61) / $C$60</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" ref="C76:G76" si="8">C61-(C$60 * $C61) / $C$60</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="8"/>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="10">
+        <f>B62-(B$60 * $C62) / $C$60</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" ref="C77:G77" si="9">C62-(C$60 * $C62) / $C$60</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="9"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G77" s="35">
+        <f t="shared" si="9"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A6:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1469,4 +2729,137 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30">
+        <v>4</v>
+      </c>
+      <c r="E2" s="31">
+        <v>20</v>
+      </c>
+      <c r="F2" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="27">
+        <v>5</v>
+      </c>
+      <c r="C3" s="27">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>15</v>
+      </c>
+      <c r="F3" s="32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="27">
+        <v>26</v>
+      </c>
+      <c r="C4" s="27">
+        <v>16</v>
+      </c>
+      <c r="D4" s="27">
+        <v>17</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29">
+        <f xml:space="preserve"> SUMPRODUCT(B2:B3,$F$2:$F$3)</f>
+        <v>21.5</v>
+      </c>
+      <c r="C8" s="29">
+        <f xml:space="preserve"> SUMPRODUCT(C2:C3,$F$2:$F$3)</f>
+        <v>16</v>
+      </c>
+      <c r="D8" s="29">
+        <f xml:space="preserve"> SUMPRODUCT(D2:D3,$F$2:$F$3)</f>
+        <v>17</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="29">
+        <f xml:space="preserve"> SUMPRODUCT(E2:E3,F2:F3)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Графическое решение" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -519,7 +525,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,6 +568,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,30 +617,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1428,7 +1435,7 @@
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0">
-      <selection sqref="A1:K7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,20 +1445,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1570,10 +1577,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1582,8 +1589,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3">
         <v>20</v>
       </c>
@@ -1644,27 +1651,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A51" zoomScale="213" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1777,10 +1784,10 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1789,8 +1796,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3">
         <v>20</v>
       </c>
@@ -1827,7 +1834,7 @@
       <c r="F22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1850,7 +1857,7 @@
       <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="28">
         <v>26</v>
       </c>
     </row>
@@ -1873,7 +1880,7 @@
       <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="28">
         <v>16</v>
       </c>
     </row>
@@ -1896,7 +1903,7 @@
       <c r="F25" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="28">
         <v>17</v>
       </c>
     </row>
@@ -1904,10 +1911,10 @@
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="26">
         <v>-20</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="26">
         <v>-15</v>
       </c>
       <c r="D26" s="10">
@@ -1937,7 +1944,7 @@
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -1952,7 +1959,7 @@
       <c r="F30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1960,7 +1967,7 @@
       <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="29">
         <v>3</v>
       </c>
       <c r="C31" s="10">
@@ -1975,7 +1982,7 @@
       <c r="F31" s="10">
         <v>0</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="28">
         <v>26</v>
       </c>
     </row>
@@ -1983,7 +1990,7 @@
       <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="29">
         <v>2</v>
       </c>
       <c r="C32" s="10">
@@ -1998,7 +2005,7 @@
       <c r="F32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="28">
         <v>16</v>
       </c>
     </row>
@@ -2006,7 +2013,7 @@
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="29">
         <v>4</v>
       </c>
       <c r="C33" s="10">
@@ -2021,7 +2028,7 @@
       <c r="F33" s="10">
         <v>1</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="28">
         <v>17</v>
       </c>
     </row>
@@ -2029,10 +2036,10 @@
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="29">
         <v>-20</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="28">
         <v>-15</v>
       </c>
       <c r="D34" s="10">
@@ -2052,7 +2059,7 @@
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -2067,7 +2074,7 @@
       <c r="F37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2075,7 +2082,7 @@
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="29">
         <f>G38 /B31</f>
         <v>8.6666666666666661</v>
       </c>
@@ -2091,7 +2098,7 @@
       <c r="F38" s="10">
         <v>0</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="28">
         <v>26</v>
       </c>
     </row>
@@ -2099,8 +2106,8 @@
       <c r="A39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="37">
-        <f t="shared" ref="B39:B40" si="0">G39 /B32</f>
+      <c r="B39" s="29">
+        <f t="shared" ref="B39" si="0">G39 /B32</f>
         <v>8</v>
       </c>
       <c r="C39" s="10">
@@ -2115,31 +2122,31 @@
       <c r="F39" s="10">
         <v>0</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="28">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="41">
-        <f t="shared" si="0"/>
+      <c r="B40" s="33">
+        <f>G40 /B33</f>
         <v>4.25</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="32">
         <v>2</v>
       </c>
-      <c r="D40" s="40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="40">
+      <c r="D40" s="32">
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0</v>
+      </c>
+      <c r="F40" s="32">
         <v>1</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="32">
         <v>17</v>
       </c>
     </row>
@@ -2147,10 +2154,10 @@
       <c r="A41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="29">
         <v>-20</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="28">
         <v>-15</v>
       </c>
       <c r="D41" s="10">
@@ -2294,7 +2301,7 @@
         <f>B34-(B$33 * $B34) / $B$33</f>
         <v>0</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="30">
         <f t="shared" ref="C52:G52" si="4">C34-(C$33 * $B34) / $B$33</f>
         <v>-5</v>
       </c>
@@ -2316,7 +2323,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2332,7 +2339,7 @@
       <c r="B58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="10" t="s">
@@ -2355,7 +2362,7 @@
       <c r="B59" s="10">
         <v>0</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="29">
         <v>3.5</v>
       </c>
       <c r="D59" s="10">
@@ -2378,7 +2385,7 @@
       <c r="B60" s="10">
         <v>0</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="29">
         <v>3</v>
       </c>
       <c r="D60" s="10">
@@ -2401,7 +2408,7 @@
       <c r="B61" s="10">
         <v>1</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="29">
         <v>0.5</v>
       </c>
       <c r="D61" s="10">
@@ -2424,7 +2431,7 @@
       <c r="B62" s="10">
         <v>0</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="29">
         <v>-5</v>
       </c>
       <c r="D62" s="10">
@@ -2447,7 +2454,7 @@
       <c r="B65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -2470,7 +2477,7 @@
       <c r="B66" s="10">
         <v>0</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="29">
         <f>G31/C59</f>
         <v>7.4285714285714288</v>
       </c>
@@ -2488,26 +2495,26 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="38">
-        <v>0</v>
-      </c>
-      <c r="C67" s="35">
+      <c r="B67" s="30">
+        <v>0</v>
+      </c>
+      <c r="C67" s="27">
         <f t="shared" ref="C67:C68" si="5">G32/C60</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D67" s="38">
-        <v>0</v>
-      </c>
-      <c r="E67" s="38">
+      <c r="D67" s="30">
+        <v>0</v>
+      </c>
+      <c r="E67" s="30">
         <v>1</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="30">
         <v>-0.5</v>
       </c>
-      <c r="G67" s="38">
+      <c r="G67" s="30">
         <v>7.5</v>
       </c>
     </row>
@@ -2518,7 +2525,7 @@
       <c r="B68" s="10">
         <v>1</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="29">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
@@ -2542,7 +2549,7 @@
       <c r="B69" s="10">
         <v>0</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="29">
         <v>-5</v>
       </c>
       <c r="D69" s="10">
@@ -2617,7 +2624,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B75" s="10">
         <f>B60/$C$60</f>
@@ -2639,7 +2646,7 @@
         <f t="shared" si="7"/>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="34">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
@@ -2668,7 +2675,7 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="34">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -2697,7 +2704,7 @@
         <f t="shared" si="9"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="G77" s="35">
+      <c r="G77" s="27">
         <f t="shared" si="9"/>
         <v>97.5</v>
       </c>
@@ -2735,126 +2742,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="22">
         <v>3</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="22">
         <v>2</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="22">
         <v>4</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="23">
         <v>20</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="19">
         <v>5</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="19">
         <v>4</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="23">
         <v>15</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="24">
         <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="19">
         <v>26</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <v>16</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="19">
         <v>17</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29">
-        <f xml:space="preserve"> SUMPRODUCT(B2:B3,$F$2:$F$3)</f>
-        <v>21.5</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
         <f xml:space="preserve"> SUMPRODUCT(C2:C3,$F$2:$F$3)</f>
         <v>16</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="21">
         <f xml:space="preserve"> SUMPRODUCT(D2:D3,$F$2:$F$3)</f>
         <v>17</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="21">
         <f xml:space="preserve"> SUMPRODUCT(E2:E3,F2:F3)</f>
         <v>97.5</v>
       </c>
